--- a/DB/닷컴 DB.xlsx
+++ b/DB/닷컴 DB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoey\Desktop\gitHub\projectDotcom\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526604EF-5271-46E2-9559-63DB1266D22C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8A172-6974-41DE-BEC1-EB49AD89F636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE620956-F93E-47E2-B271-B10A7C62E15B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,22 @@
   </si>
   <si>
     <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EST_Photo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +774,7 @@
   <dimension ref="B1:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1037,20 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="16" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">

--- a/DB/닷컴 DB.xlsx
+++ b/DB/닷컴 DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zoey\Desktop\gitHub\projectDotcom\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8A172-6974-41DE-BEC1-EB49AD89F636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7AFBAF-7F9A-48D6-80BD-0A9282E090B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE620956-F93E-47E2-B271-B10A7C62E15B}"/>
+    <workbookView xWindow="14475" yWindow="195" windowWidth="15210" windowHeight="9690" xr2:uid="{FE620956-F93E-47E2-B271-B10A7C62E15B}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB3C6C5-EBEE-47F4-B2A0-4D68CFDD4411}">
   <dimension ref="B1:O40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
